--- a/cv/cv.xlsx
+++ b/cv/cv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" state="visible" r:id="rId2"/>
@@ -79,13 +79,13 @@
     <t xml:space="preserve">HCMC, Vietnam</t>
   </si>
   <si>
-    <t xml:space="preserve">Professional Developer of e-business Applications</t>
+    <t xml:space="preserve">Professional Developer of E-Business Applications</t>
   </si>
   <si>
     <t xml:space="preserve">2006–2008</t>
   </si>
   <si>
-    <t xml:space="preserve">IBM Advanced Career Education</t>
+    <t xml:space="preserve">IBM </t>
   </si>
   <si>
     <t xml:space="preserve">role</t>
@@ -393,7 +393,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -427,10 +427,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -553,13 +549,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="71.29"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -579,7 +578,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -593,6 +592,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -612,19 +612,19 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.82"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -647,118 +647,118 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="10" t="n">
+      <c r="C2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9" t="n">
         <v>2012</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+    <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="10" t="n">
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+    <row r="4" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="10" t="n">
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="n">
         <v>2012</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+    <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="10" t="n">
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="n">
         <v>2012</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+    <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="10" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -816,252 +816,252 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="9" t="n">
         <v>2018</v>
       </c>
-      <c r="E2" s="10" t="n">
+      <c r="E2" s="9" t="n">
         <v>2022</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="9" t="n">
         <v>2018</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="9" t="n">
         <v>2022</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="9" t="n">
         <v>2018</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="9" t="n">
         <v>2022</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="9" t="n">
         <v>2018</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="9" t="n">
         <v>2022</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="9" t="n">
         <v>2018</v>
       </c>
-      <c r="E6" s="10" t="n">
+      <c r="E6" s="9" t="n">
         <v>2022</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="9" t="n">
         <v>2010</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="9" t="n">
         <v>2010</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="9" t="n">
         <v>2010</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="9" t="n">
         <v>2010</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="9" t="n">
         <v>2010</v>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="F8" s="9" t="n">
         <v>2010</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="9" t="n">
         <v>2010</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="9" t="n">
         <v>2010</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="9" t="n">
         <v>2010</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="10" t="n">
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="n">
         <v>2005</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="E10" s="9" t="n">
         <v>2006</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="10" t="n">
+      <c r="C11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="9" t="n">
         <v>2005</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="E11" s="9" t="n">
         <v>2006</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="10" t="n">
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="9" t="n">
         <v>2005</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="9" t="n">
         <v>2006</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1127,13 +1127,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1142,21 +1142,21 @@
       <c r="E2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1165,21 +1165,21 @@
       <c r="E3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1188,21 +1188,21 @@
       <c r="E4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1211,21 +1211,21 @@
       <c r="E5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1234,21 +1234,21 @@
       <c r="E6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1257,21 +1257,21 @@
       <c r="E7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1280,21 +1280,21 @@
       <c r="E8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1303,21 +1303,21 @@
       <c r="E9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -1326,21 +1326,21 @@
       <c r="E10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -1349,21 +1349,21 @@
       <c r="E11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -1372,21 +1372,21 @@
       <c r="E12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1395,21 +1395,21 @@
       <c r="E13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="1" t="n">
@@ -1421,7 +1421,7 @@
       <c r="F14" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1473,44 +1473,44 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="9" t="n">
         <v>2022</v>
       </c>
-      <c r="E2" s="10" t="n">
+      <c r="E2" s="9" t="n">
         <v>2022</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="9" t="n">
         <v>2022</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="9" t="n">
         <v>2022</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/cv/cv.xlsx
+++ b/cv/cv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THACH\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D297152-0214-423B-B808-9A8542A95590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAABE156-C229-47F1-991D-EF8F2111F5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1368" yWindow="3720" windowWidth="17280" windowHeight="9960" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1368" yWindow="3720" windowWidth="17280" windowHeight="9960" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="103">
   <si>
     <t>degree</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Dashboard</t>
   </si>
   <si>
-    <t>Visualisation</t>
-  </si>
-  <si>
     <t>Forecasting</t>
   </si>
   <si>
@@ -304,31 +301,40 @@
     <t>EPICOR</t>
   </si>
   <si>
-    <t>2018-2022</t>
-  </si>
-  <si>
     <t>Datastream, Refinitiv Eikon</t>
   </si>
   <si>
-    <t>R, Tidyverse</t>
-  </si>
-  <si>
     <t>training</t>
   </si>
   <si>
-    <t>Python, Scientific Computing</t>
-  </si>
-  <si>
-    <t>O'Reilly</t>
-  </si>
-  <si>
     <t>Macroeconomic Indicators and Financial Data Technology</t>
   </si>
   <si>
-    <t>Linkedin Learning</t>
-  </si>
-  <si>
     <t>Online</t>
+  </si>
+  <si>
+    <t>Victoria University, Elservier</t>
+  </si>
+  <si>
+    <t>2018-2023</t>
+  </si>
+  <si>
+    <t>O'Reilly, Linkedin Learning</t>
+  </si>
+  <si>
+    <t>R, Python, Scientific Computing, Data Visualization</t>
+  </si>
+  <si>
+    <t>Data Visualization</t>
+  </si>
+  <si>
+    <t>LaTeX, Statistics, Research Workflow</t>
+  </si>
+  <si>
+    <t>2019-2020</t>
+  </si>
+  <si>
+    <t>2018-2020</t>
   </si>
 </sst>
 </file>
@@ -825,7 +831,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -836,7 +842,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -853,27 +859,27 @@
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="B2" s="9">
-        <v>2002</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>8</v>
@@ -881,27 +887,27 @@
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="9">
-        <v>2018</v>
+        <v>100</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="9">
         <v>2013</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>16</v>
@@ -909,13 +915,13 @@
     </row>
     <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="9">
         <v>2008</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>16</v>
@@ -1413,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1537,7 +1543,7 @@
         <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
@@ -1560,176 +1566,176 @@
         <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" t="s">
         <v>61</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>62</v>
-      </c>
-      <c r="G7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" t="s">
         <v>61</v>
       </c>
-      <c r="F8" t="s">
-        <v>62</v>
-      </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" t="s">
         <v>61</v>
       </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" t="s">
         <v>61</v>
       </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" t="s">
         <v>61</v>
       </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" t="s">
         <v>61</v>
       </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" t="s">
         <v>61</v>
       </c>
-      <c r="F13" t="s">
-        <v>62</v>
-      </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1744,7 +1750,7 @@
         <v>2006</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1788,10 +1794,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
       </c>
       <c r="D2">
         <v>2022</v>
@@ -1803,15 +1809,15 @@
         <v>2022</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
         <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
       </c>
       <c r="D3">
         <v>2022</v>
@@ -1823,7 +1829,7 @@
         <v>2022</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1844,21 +1850,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
         <v>80</v>
-      </c>
-      <c r="B2" t="s">
-        <v>81</v>
       </c>
       <c r="C2" s="4">
         <v>5</v>
@@ -1866,10 +1872,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
@@ -1877,10 +1883,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="4">
         <v>2.5</v>
@@ -1888,10 +1894,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="4">
         <v>5</v>
@@ -1899,10 +1905,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4">
         <v>4</v>
@@ -1910,10 +1916,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
@@ -1921,10 +1927,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>

--- a/cv/cv.xlsx
+++ b/cv/cv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THACH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\ubuntu\mnt\tsys\projects\CV-Awesome\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAABE156-C229-47F1-991D-EF8F2111F5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCADE06C-6D84-41AC-B946-8338B0AF9D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1368" yWindow="3720" windowWidth="17280" windowHeight="9960" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="104">
   <si>
     <t>degree</t>
   </si>
@@ -160,9 +160,6 @@
     <t>Undergraduate Researcher</t>
   </si>
   <si>
-    <t>2005--2006</t>
-  </si>
-  <si>
     <t>Conduct a research using cluster analysis to determine the main industries in Long An Province, Vietnam</t>
   </si>
   <si>
@@ -335,6 +332,12 @@
   </si>
   <si>
     <t>2018-2020</t>
+  </si>
+  <si>
+    <t>Jan 2006--Jun 2006</t>
+  </si>
+  <si>
+    <t>Jun 2005--Aug 2005</t>
   </si>
 </sst>
 </file>
@@ -830,7 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -842,7 +845,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -859,27 +862,27 @@
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>8</v>
@@ -887,13 +890,13 @@
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>8</v>
@@ -901,13 +904,13 @@
     </row>
     <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="9">
         <v>2013</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>16</v>
@@ -915,13 +918,13 @@
     </row>
     <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="9">
         <v>2008</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>16</v>
@@ -1122,7 +1125,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1130,7 +1133,7 @@
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="18.09765625" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" customWidth="1"/>
+    <col min="6" max="6" width="16.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1357,10 +1360,10 @@
         <v>2006</v>
       </c>
       <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
         <v>44</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -1380,10 +1383,10 @@
         <v>2006</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -1403,10 +1406,10 @@
         <v>2006</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1419,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1456,286 +1459,286 @@
     </row>
     <row r="2" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>52</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" t="s">
         <v>51</v>
       </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" t="s">
         <v>51</v>
       </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" t="s">
         <v>51</v>
       </c>
-      <c r="F5" t="s">
-        <v>52</v>
-      </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" t="s">
         <v>51</v>
       </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" t="s">
         <v>60</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>61</v>
-      </c>
-      <c r="G7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" t="s">
         <v>60</v>
       </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" t="s">
         <v>60</v>
       </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" t="s">
         <v>60</v>
       </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" t="s">
         <v>60</v>
       </c>
-      <c r="F13" t="s">
-        <v>61</v>
-      </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1746,11 +1749,11 @@
       <c r="E14">
         <v>2006</v>
       </c>
-      <c r="F14">
-        <v>2006</v>
+      <c r="F14" t="s">
+        <v>103</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1794,10 +1797,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
       </c>
       <c r="D2">
         <v>2022</v>
@@ -1809,15 +1812,15 @@
         <v>2022</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
       </c>
       <c r="D3">
         <v>2022</v>
@@ -1829,7 +1832,7 @@
         <v>2022</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1850,21 +1853,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
         <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
       </c>
       <c r="C2" s="4">
         <v>5</v>
@@ -1872,10 +1875,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
@@ -1883,10 +1886,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="4">
         <v>2.5</v>
@@ -1894,10 +1897,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4">
         <v>5</v>
@@ -1905,10 +1908,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="4">
         <v>4</v>
@@ -1916,10 +1919,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
@@ -1927,10 +1930,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>

--- a/cv/cv.xlsx
+++ b/cv/cv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\ubuntu\mnt\tsys\projects\CV-Awesome\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCADE06C-6D84-41AC-B946-8338B0AF9D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F918C7-9FDA-442E-A080-638121702DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1423,7 +1423,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/cv/cv.xlsx
+++ b/cv/cv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\ubuntu\mnt\tsys\projects\CV-Awesome\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F918C7-9FDA-442E-A080-638121702DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE6537F-E9A7-4736-ACB2-CF526A88BF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="100">
   <si>
     <t>degree</t>
   </si>
@@ -239,18 +239,6 @@
   </si>
   <si>
     <t>Collecting and analysing data of using ATM cards and real estate</t>
-  </si>
-  <si>
-    <t>TV Interview on "The Daily Rip" about my comet discovery</t>
-  </si>
-  <si>
-    <t>Washington DC</t>
-  </si>
-  <si>
-    <t>Invited for a TV interview on the popular TV show "The Daily Rip" hosted by Jack and Brie</t>
-  </si>
-  <si>
-    <t>I appeared on the same segment as the news on Ariana Grande's and DJ Chello's breakup</t>
   </si>
   <si>
     <t>skill</t>
@@ -845,7 +833,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -862,27 +850,27 @@
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>8</v>
@@ -890,13 +878,13 @@
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>8</v>
@@ -904,13 +892,13 @@
     </row>
     <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B5" s="9">
         <v>2013</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>16</v>
@@ -918,13 +906,13 @@
     </row>
     <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B6" s="9">
         <v>2008</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>16</v>
@@ -1360,7 +1348,7 @@
         <v>2006</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
         <v>44</v>
@@ -1383,7 +1371,7 @@
         <v>2006</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1406,7 +1394,7 @@
         <v>2006</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1422,7 +1410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1546,7 +1534,7 @@
         <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
@@ -1750,7 +1738,7 @@
         <v>2006</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G14" t="s">
         <v>70</v>
@@ -1764,10 +1752,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1793,46 +1781,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2">
-        <v>2022</v>
-      </c>
-      <c r="E2">
-        <v>2022</v>
-      </c>
-      <c r="F2">
-        <v>2022</v>
-      </c>
-      <c r="G2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3">
-        <v>2022</v>
-      </c>
-      <c r="E3">
-        <v>2022</v>
-      </c>
-      <c r="F3">
-        <v>2022</v>
-      </c>
-      <c r="G3" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1845,29 +1793,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4">
         <v>5</v>
@@ -1875,10 +1826,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
@@ -1886,10 +1837,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C4" s="4">
         <v>2.5</v>
@@ -1897,10 +1848,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C5" s="4">
         <v>5</v>
@@ -1908,10 +1859,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C6" s="4">
         <v>4</v>
@@ -1919,10 +1870,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
@@ -1930,10 +1881,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>

--- a/cv/cv.xlsx
+++ b/cv/cv.xlsx
@@ -1,27 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\ubuntu\mnt\tsys\repos\CV-Awesome\cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5416AD82-1B5D-4B3A-908C-CC5DF7DEE4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E3D8C9-6FD0-4190-AD79-9C5AC5A828C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
     <sheet name="training" sheetId="2" r:id="rId2"/>
     <sheet name="teaching" sheetId="3" r:id="rId3"/>
     <sheet name="research" sheetId="4" r:id="rId4"/>
-    <sheet name="research2" sheetId="8" r:id="rId5"/>
-    <sheet name="industry" sheetId="5" r:id="rId6"/>
-    <sheet name="industry2" sheetId="9" r:id="rId7"/>
-    <sheet name="leadership" sheetId="6" r:id="rId8"/>
-    <sheet name="skills" sheetId="7" r:id="rId9"/>
+    <sheet name="industry" sheetId="5" r:id="rId5"/>
+    <sheet name="leadership" sheetId="6" r:id="rId6"/>
+    <sheet name="skills" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="102">
   <si>
     <t>degree</t>
   </si>
@@ -402,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -418,7 +416,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1176,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1214,7 +1211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1237,7 +1234,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1260,7 +1257,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1283,7 +1280,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1306,7 +1303,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1329,10 +1326,30 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>2010</v>
+      </c>
+      <c r="E7">
+        <v>2010</v>
+      </c>
+      <c r="F7">
+        <v>2010</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1352,10 +1369,10 @@
         <v>2010</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1375,30 +1392,76 @@
         <v>2010</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="E10">
-        <v>2010</v>
-      </c>
-      <c r="F10">
-        <v>2010</v>
+        <v>2006</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>2005</v>
+      </c>
+      <c r="E11">
+        <v>2006</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>2005</v>
+      </c>
+      <c r="E12">
+        <v>2006</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1408,125 +1471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532BDC72-2925-49AE-B7BF-5BF1EC76F7ED}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" customWidth="1"/>
-    <col min="6" max="6" width="16.69921875" customWidth="1"/>
-    <col min="7" max="7" width="90.19921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2">
-        <v>2005</v>
-      </c>
-      <c r="E2">
-        <v>2006</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>2005</v>
-      </c>
-      <c r="E3">
-        <v>2006</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>2005</v>
-      </c>
-      <c r="E4">
-        <v>2006</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1562,8 +1511,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1585,8 +1534,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1608,8 +1557,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1631,8 +1580,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1654,8 +1603,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1677,14 +1626,31 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="8"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1703,11 +1669,11 @@
         <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>75</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1726,11 +1692,11 @@
         <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1749,11 +1715,11 @@
         <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>75</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1772,11 +1738,11 @@
         <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1795,11 +1761,11 @@
         <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>75</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1818,30 +1784,30 @@
         <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>87</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>78</v>
+      <c r="D14">
+        <v>2006</v>
+      </c>
+      <c r="E14">
+        <v>2006</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1850,77 +1816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDAC732-C96D-49A2-B5DC-D071A2D19FBD}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2">
-        <v>2006</v>
-      </c>
-      <c r="E2">
-        <v>2006</v>
-      </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -1959,7 +1855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
